--- a/data/trans_camb/P1412-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1412-Clase-trans_camb.xlsx
@@ -618,13 +618,13 @@
         <v>-0.6648973698895783</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.03269308839688032</v>
+        <v>0.03269308839688014</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2195511593328055</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.7352650216687704</v>
+        <v>0.7352650216687702</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2148621139335526</v>
+        <v>0.2159048473221459</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6214257644162081</v>
+        <v>0.6346003701832734</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.016072519112475</v>
+        <v>-2.035256000347808</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.585515718587944</v>
+        <v>-1.419559011030846</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.4075947655161308</v>
+        <v>-0.4106751331810645</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0701184278766652</v>
+        <v>0.1002164146761902</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.792674320902746</v>
+        <v>2.918398882710723</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.445978618536571</v>
+        <v>2.329006814135063</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.853220193363006</v>
+        <v>0.8376380860856727</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.174549522977124</v>
+        <v>1.09594720342828</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.419666299056444</v>
+        <v>1.445373457585673</v>
       </c>
     </row>
     <row r="7">
@@ -700,13 +700,13 @@
         <v>-1</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.04917012741727309</v>
+        <v>0.04917012741727282</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7893107051459235</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>2.643359089909362</v>
+        <v>2.643359089909361</v>
       </c>
     </row>
     <row r="8">
@@ -719,12 +719,10 @@
       <c r="C8" s="6" t="inlineStr"/>
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="inlineStr"/>
-      <c r="F8" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.2114446585602212</v>
+        <v>-0.2733493100627657</v>
       </c>
     </row>
     <row r="9">
@@ -779,20 +777,20 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.249753843526674</v>
+        <v>-1.144789909170003</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.5100586712532656</v>
+        <v>-0.5104693691551188</v>
       </c>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.8135812316513582</v>
+        <v>-0.7914643107998329</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.1951799080216041</v>
+        <v>-0.2140776172450586</v>
       </c>
     </row>
     <row r="12">
@@ -806,17 +804,17 @@
         <v>0</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.055131488136344</v>
+        <v>1.062873546215453</v>
       </c>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.6826429395439781</v>
+        <v>0.6831622540060228</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6467440708820364</v>
+        <v>0.6455228972561279</v>
       </c>
     </row>
     <row r="13">
@@ -900,7 +898,7 @@
         <v>-0.1832508910659648</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.4577578157363049</v>
+        <v>0.4577578157363048</v>
       </c>
     </row>
     <row r="17">
@@ -911,20 +909,20 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.731591381852286</v>
+        <v>-1.725063200267659</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.8802559226994088</v>
+        <v>-0.8105994704339604</v>
       </c>
       <c r="E17" s="5" t="inlineStr"/>
       <c r="F17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.109332526010296</v>
+        <v>-1.03929941986985</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.4868342661337196</v>
+        <v>-0.4797082359011423</v>
       </c>
     </row>
     <row r="18">
@@ -935,20 +933,20 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6105353344312255</v>
+        <v>0.5874763474161895</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.705652881232281</v>
+        <v>1.899694822885116</v>
       </c>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>1.901397611482471</v>
+        <v>1.683132683124004</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5468412050202507</v>
+        <v>0.6073074626661478</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.405262452823797</v>
+        <v>1.407367612530364</v>
       </c>
     </row>
     <row r="19">
@@ -974,7 +972,7 @@
         <v>-0.3012415419768084</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7524965879412935</v>
+        <v>0.7524965879412931</v>
       </c>
     </row>
     <row r="20">
@@ -986,7 +984,7 @@
       </c>
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="n">
-        <v>-0.7466549959622365</v>
+        <v>-0.6580592312257986</v>
       </c>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="inlineStr"/>
@@ -994,7 +992,7 @@
         <v>-1</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6020110523133368</v>
+        <v>-0.6641280509370282</v>
       </c>
     </row>
     <row r="21">
@@ -1006,15 +1004,15 @@
       </c>
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="n">
-        <v>5.349800872533178</v>
+        <v>7.523466273116914</v>
       </c>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="n">
-        <v>3.589426558581782</v>
+        <v>5.84707995380496</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>7.737236344450902</v>
+        <v>6.163934462297528</v>
       </c>
     </row>
     <row r="22">
@@ -1032,7 +1030,7 @@
         <v>-0.0171461072695436</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.007906197494383579</v>
+        <v>0.007906197494383406</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.1758754095290746</v>
@@ -1044,7 +1042,7 @@
         <v>0.04435740074356497</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.1743552519942945</v>
+        <v>0.1743552519942947</v>
       </c>
     </row>
     <row r="23">
@@ -1055,22 +1053,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.9513358341931862</v>
+        <v>-0.7963388344224178</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.8769636385975776</v>
+        <v>-0.8560566103541537</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.1311548640027642</v>
+        <v>-0.242382725374793</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01599361992850072</v>
+        <v>0.01571929010589633</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.4359778889803422</v>
+        <v>-0.4915731908673308</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.385603816877421</v>
+        <v>-0.3533993070495737</v>
       </c>
     </row>
     <row r="24">
@@ -1081,22 +1079,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8168914427455354</v>
+        <v>0.8277190349201362</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7714458361974036</v>
+        <v>0.800924067911965</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8153777742638093</v>
+        <v>0.8045958901639156</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9532121850226545</v>
+        <v>1.031314156597541</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6056307221977778</v>
+        <v>0.6020537651638002</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6896983982817666</v>
+        <v>0.7647382825041549</v>
       </c>
     </row>
     <row r="25">
@@ -1110,7 +1108,7 @@
         <v>-0.01629834069189465</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.007515286024703464</v>
+        <v>0.007515286024703299</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>1.344070389940932</v>
@@ -1122,7 +1120,7 @@
         <v>0.06465074473141143</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2541221239366541</v>
+        <v>0.2541221239366543</v>
       </c>
     </row>
     <row r="26">
@@ -1133,18 +1131,18 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6317806341728337</v>
+        <v>-0.6083835523246116</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5966772253840815</v>
+        <v>-0.5746757195420013</v>
       </c>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
-        <v>-0.5295981541026437</v>
+        <v>-0.518491610160402</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4389199393398874</v>
+        <v>-0.3744428433773627</v>
       </c>
     </row>
     <row r="27">
@@ -1155,18 +1153,18 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.206535324961711</v>
+        <v>1.373694307373194</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.276008829998343</v>
+        <v>1.305806603329904</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>1.416834687665188</v>
+        <v>1.461880732786041</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.459437197637613</v>
+        <v>1.632480709291186</v>
       </c>
     </row>
     <row r="28">
@@ -1184,19 +1182,19 @@
         <v>0.3550728576141932</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-0.191021685226045</v>
+        <v>-0.1910216852260451</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>-0.6698455823158777</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-0.8255584691077822</v>
+        <v>-0.8255584691077823</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>-0.2337284176732438</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-0.5704251494946255</v>
+        <v>-0.5704251494946256</v>
       </c>
     </row>
     <row r="29">
@@ -1207,22 +1205,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.845574992359158</v>
+        <v>-0.8672143036741137</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.382527289903108</v>
+        <v>-1.361661985667256</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.889181255981986</v>
+        <v>-1.85398081621685</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.936171123637122</v>
+        <v>-1.958507569701045</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.11026159858473</v>
+        <v>-1.041084981045087</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.373724181582954</v>
+        <v>-1.344194069284068</v>
       </c>
     </row>
     <row r="30">
@@ -1233,22 +1231,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.466409052003362</v>
+        <v>1.574004611895259</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.6601789452596855</v>
+        <v>0.6497567073692412</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3459665061311865</v>
+        <v>0.3793329328795081</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.03528842368092187</v>
+        <v>-0.001183672804708483</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.5498894075047244</v>
+        <v>0.5265302887542405</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.06756492925451145</v>
+        <v>0.03703117180692485</v>
       </c>
     </row>
     <row r="31">
@@ -1262,19 +1260,19 @@
         <v>0.418554770033656</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.2251736110398565</v>
+        <v>-0.2251736110398566</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>-0.4681826068953548</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>-0.5770167429859275</v>
+        <v>-0.5770167429859276</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>-0.1953045290490005</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.476649849807745</v>
+        <v>-0.4766498498077451</v>
       </c>
     </row>
     <row r="32">
@@ -1285,22 +1283,20 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6946978985500959</v>
+        <v>-0.6388479641377788</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8647460531828541</v>
-      </c>
-      <c r="E32" s="6" t="n">
-        <v>-0.8895414711750709</v>
-      </c>
+        <v>-0.8441376047475452</v>
+      </c>
+      <c r="E32" s="6" t="inlineStr"/>
       <c r="F32" s="6" t="n">
-        <v>-0.8352679749404779</v>
+        <v>-0.8413276554526481</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.6522224815680338</v>
+        <v>-0.6336052022468129</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.7506090635739884</v>
+        <v>-0.7661007463461352</v>
       </c>
     </row>
     <row r="33">
@@ -1311,22 +1307,20 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>5.431635001150578</v>
+        <v>5.12262732594471</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.715773784848751</v>
-      </c>
-      <c r="E33" s="6" t="n">
-        <v>0.605843764903602</v>
-      </c>
+        <v>2.980643566001041</v>
+      </c>
+      <c r="E33" s="6" t="inlineStr"/>
       <c r="F33" s="6" t="n">
-        <v>0.1542945054961964</v>
+        <v>0.1070523943671312</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.7700038092862005</v>
+        <v>0.7447581714327144</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1326208615759331</v>
+        <v>0.1002814311070732</v>
       </c>
     </row>
     <row r="34">
@@ -1350,13 +1344,13 @@
         <v>0.04405812394562818</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>-0.3127194937555314</v>
+        <v>-0.3127194937555316</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>0.01956660657538647</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-0.2689142790115807</v>
+        <v>-0.2689142790115808</v>
       </c>
     </row>
     <row r="35">
@@ -1369,16 +1363,16 @@
       <c r="C35" s="5" t="inlineStr"/>
       <c r="D35" s="5" t="inlineStr"/>
       <c r="E35" s="5" t="n">
-        <v>-0.8780851257505227</v>
+        <v>-0.8411845357857495</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.079318197602166</v>
+        <v>-1.106784269590542</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.6456431823536511</v>
+        <v>-0.662502899476918</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.8793518923783245</v>
+        <v>-0.8613998705905072</v>
       </c>
     </row>
     <row r="36">
@@ -1391,16 +1385,16 @@
       <c r="C36" s="5" t="inlineStr"/>
       <c r="D36" s="5" t="inlineStr"/>
       <c r="E36" s="5" t="n">
-        <v>0.9538727929684518</v>
+        <v>0.8943671192263666</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>0.3478549901535535</v>
+        <v>0.3749707749891214</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.6927510323550985</v>
+        <v>0.7163111183406816</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>0.3226808836965773</v>
+        <v>0.297496154885812</v>
       </c>
     </row>
     <row r="37">
@@ -1416,13 +1410,13 @@
         <v>0.04516066953103498</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>-0.3205452354447669</v>
+        <v>-0.3205452354447672</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02488643626955044</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.342027527400296</v>
+        <v>-0.3420275274002961</v>
       </c>
     </row>
     <row r="38">
@@ -1435,16 +1429,16 @@
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="n">
-        <v>-0.6184614193065683</v>
+        <v>-0.617115693593922</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.748776830943405</v>
+        <v>-0.7654410729897625</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.6280699799314491</v>
+        <v>-0.6323068434232034</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.765800907760247</v>
+        <v>-0.749730744498815</v>
       </c>
     </row>
     <row r="39">
@@ -1457,16 +1451,16 @@
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="n">
-        <v>1.70807582670735</v>
+        <v>1.669297884978007</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.739081169683758</v>
+        <v>0.8113814142917103</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.577507314928022</v>
+        <v>1.761234353499171</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.872654136997156</v>
+        <v>0.7928770774218322</v>
       </c>
     </row>
     <row r="40">
@@ -1507,22 +1501,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.3307828888927809</v>
+        <v>-0.3213406738619623</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.1409353814529475</v>
+        <v>-0.1679669368980621</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.572910426069689</v>
+        <v>-0.5317413535712647</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.5062393757233613</v>
+        <v>-0.4899582622287116</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.3317023848485722</v>
+        <v>-0.3207615823002434</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.228590141900774</v>
+        <v>-0.2052140646540914</v>
       </c>
     </row>
     <row r="42">
@@ -1533,22 +1527,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.4753641891250846</v>
+        <v>0.5080400237445518</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.6633277327630898</v>
+        <v>0.6632736467292564</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.2352342707079561</v>
+        <v>0.215058475949789</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.2041915548201273</v>
+        <v>0.1994227810810206</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.2420172827773048</v>
+        <v>0.2491022731513768</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>0.2971161050553973</v>
+        <v>0.3387580357258917</v>
       </c>
     </row>
     <row r="43">
@@ -1585,22 +1579,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.3856747721299256</v>
+        <v>-0.3869864316535312</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1970258678078331</v>
+        <v>-0.2055436251234418</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.6277610094399596</v>
+        <v>-0.5940405413591897</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.5396139904139258</v>
+        <v>-0.5249847994997495</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.392568157338861</v>
+        <v>-0.3974257205518233</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.2650528504520184</v>
+        <v>-0.241542514255372</v>
       </c>
     </row>
     <row r="45">
@@ -1611,22 +1605,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.016049540633379</v>
+        <v>1.081815204930241</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.327927957778668</v>
+        <v>1.396537685210941</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.4766352739815564</v>
+        <v>0.4539355201905429</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.4621141659260727</v>
+        <v>0.4230060188529129</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.4178617275022824</v>
+        <v>0.4489715541639435</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.5275154184080839</v>
+        <v>0.6150139551849606</v>
       </c>
     </row>
     <row r="46">
